--- a/Datasets/smap-at.xlsx
+++ b/Datasets/smap-at.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\MOGESTpy\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E44AEFC-D189-48A0-8E0D-E1121867315C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87EE3FB-9E36-4BD9-9D56-AF09F57474D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{A16BAFBD-949A-4519-8204-ACA6B64A1A65}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A16BAFBD-949A-4519-8204-ACA6B64A1A65}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>prec</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>q-obs</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B896E657-0399-4533-A68F-01431A6F277D}">
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +432,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -439,8 +442,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43496</v>
       </c>
@@ -450,8 +456,11 @@
       <c r="C2">
         <v>5.096774193548387</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43497</v>
       </c>
@@ -461,8 +470,11 @@
       <c r="C3">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43498</v>
       </c>
@@ -472,8 +484,11 @@
       <c r="C4">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43499</v>
       </c>
@@ -483,8 +498,11 @@
       <c r="C5">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43500</v>
       </c>
@@ -494,8 +512,11 @@
       <c r="C6">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43501</v>
       </c>
@@ -505,8 +526,11 @@
       <c r="C7">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43502</v>
       </c>
@@ -516,8 +540,11 @@
       <c r="C8">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43503</v>
       </c>
@@ -527,8 +554,11 @@
       <c r="C9">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43504</v>
       </c>
@@ -538,8 +568,11 @@
       <c r="C10">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43505</v>
       </c>
@@ -549,8 +582,11 @@
       <c r="C11">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43506</v>
       </c>
@@ -560,8 +596,11 @@
       <c r="C12">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43507</v>
       </c>
@@ -571,8 +610,11 @@
       <c r="C13">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43508</v>
       </c>
@@ -582,8 +624,11 @@
       <c r="C14">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43509</v>
       </c>
@@ -593,8 +638,11 @@
       <c r="C15">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43510</v>
       </c>
@@ -604,8 +652,11 @@
       <c r="C16">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43511</v>
       </c>
@@ -615,8 +666,11 @@
       <c r="C17">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43512</v>
       </c>
@@ -626,8 +680,11 @@
       <c r="C18">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43513</v>
       </c>
@@ -637,8 +694,11 @@
       <c r="C19">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43514</v>
       </c>
@@ -648,8 +708,11 @@
       <c r="C20">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43515</v>
       </c>
@@ -659,8 +722,11 @@
       <c r="C21">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43516</v>
       </c>
@@ -670,8 +736,11 @@
       <c r="C22">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43517</v>
       </c>
@@ -681,8 +750,11 @@
       <c r="C23">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43518</v>
       </c>
@@ -692,8 +764,11 @@
       <c r="C24">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43519</v>
       </c>
@@ -703,8 +778,11 @@
       <c r="C25">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43520</v>
       </c>
@@ -714,8 +792,11 @@
       <c r="C26">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43521</v>
       </c>
@@ -725,8 +806,11 @@
       <c r="C27">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43522</v>
       </c>
@@ -736,8 +820,11 @@
       <c r="C28">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43523</v>
       </c>
@@ -747,8 +834,11 @@
       <c r="C29">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43524</v>
       </c>
@@ -758,8 +848,11 @@
       <c r="C30">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43525</v>
       </c>
@@ -769,8 +862,11 @@
       <c r="C31">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43526</v>
       </c>
@@ -780,8 +876,11 @@
       <c r="C32">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43527</v>
       </c>
@@ -791,8 +890,11 @@
       <c r="C33">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43528</v>
       </c>
@@ -802,8 +904,11 @@
       <c r="C34">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43529</v>
       </c>
@@ -813,8 +918,11 @@
       <c r="C35">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43530</v>
       </c>
@@ -824,8 +932,11 @@
       <c r="C36">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43531</v>
       </c>
@@ -835,8 +946,11 @@
       <c r="C37">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43532</v>
       </c>
@@ -846,8 +960,11 @@
       <c r="C38">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43533</v>
       </c>
@@ -857,8 +974,11 @@
       <c r="C39">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43534</v>
       </c>
@@ -868,8 +988,11 @@
       <c r="C40">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43535</v>
       </c>
@@ -879,8 +1002,11 @@
       <c r="C41">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43536</v>
       </c>
@@ -890,8 +1016,11 @@
       <c r="C42">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43537</v>
       </c>
@@ -901,8 +1030,11 @@
       <c r="C43">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43538</v>
       </c>
@@ -912,8 +1044,11 @@
       <c r="C44">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43539</v>
       </c>
@@ -923,8 +1058,11 @@
       <c r="C45">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43540</v>
       </c>
@@ -934,8 +1072,11 @@
       <c r="C46">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43541</v>
       </c>
@@ -945,8 +1086,11 @@
       <c r="C47">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43542</v>
       </c>
@@ -956,8 +1100,11 @@
       <c r="C48">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43543</v>
       </c>
@@ -967,8 +1114,11 @@
       <c r="C49">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43544</v>
       </c>
@@ -978,8 +1128,11 @@
       <c r="C50">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43545</v>
       </c>
@@ -989,8 +1142,11 @@
       <c r="C51">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43546</v>
       </c>
@@ -1000,8 +1156,11 @@
       <c r="C52">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43547</v>
       </c>
@@ -1011,8 +1170,11 @@
       <c r="C53">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43548</v>
       </c>
@@ -1022,8 +1184,11 @@
       <c r="C54">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43549</v>
       </c>
@@ -1033,8 +1198,11 @@
       <c r="C55">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43550</v>
       </c>
@@ -1044,8 +1212,11 @@
       <c r="C56">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43551</v>
       </c>
@@ -1055,8 +1226,11 @@
       <c r="C57">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43552</v>
       </c>
@@ -1066,8 +1240,11 @@
       <c r="C58">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43553</v>
       </c>
@@ -1077,8 +1254,11 @@
       <c r="C59">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43554</v>
       </c>
@@ -1088,8 +1268,11 @@
       <c r="C60">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43555</v>
       </c>
@@ -1099,8 +1282,11 @@
       <c r="C61">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43556</v>
       </c>
@@ -1110,8 +1296,11 @@
       <c r="C62">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43557</v>
       </c>
@@ -1121,8 +1310,11 @@
       <c r="C63">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43558</v>
       </c>
@@ -1132,8 +1324,11 @@
       <c r="C64">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43559</v>
       </c>
@@ -1143,8 +1338,11 @@
       <c r="C65">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43560</v>
       </c>
@@ -1154,8 +1352,11 @@
       <c r="C66">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43561</v>
       </c>
@@ -1165,8 +1366,11 @@
       <c r="C67">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43562</v>
       </c>
@@ -1176,8 +1380,11 @@
       <c r="C68">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43563</v>
       </c>
@@ -1187,8 +1394,11 @@
       <c r="C69">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43564</v>
       </c>
@@ -1198,8 +1408,11 @@
       <c r="C70">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43565</v>
       </c>
@@ -1209,8 +1422,11 @@
       <c r="C71">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43566</v>
       </c>
@@ -1220,8 +1436,11 @@
       <c r="C72">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43567</v>
       </c>
@@ -1231,8 +1450,11 @@
       <c r="C73">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43568</v>
       </c>
@@ -1242,8 +1464,11 @@
       <c r="C74">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43569</v>
       </c>
@@ -1253,8 +1478,11 @@
       <c r="C75">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43570</v>
       </c>
@@ -1264,8 +1492,11 @@
       <c r="C76">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43571</v>
       </c>
@@ -1275,8 +1506,11 @@
       <c r="C77">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43572</v>
       </c>
@@ -1286,8 +1520,11 @@
       <c r="C78">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43573</v>
       </c>
@@ -1297,8 +1534,11 @@
       <c r="C79">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43574</v>
       </c>
@@ -1308,8 +1548,11 @@
       <c r="C80">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43575</v>
       </c>
@@ -1319,8 +1562,11 @@
       <c r="C81">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43576</v>
       </c>
@@ -1330,8 +1576,11 @@
       <c r="C82">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43577</v>
       </c>
@@ -1341,8 +1590,11 @@
       <c r="C83">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43578</v>
       </c>
@@ -1352,8 +1604,11 @@
       <c r="C84">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43579</v>
       </c>
@@ -1363,8 +1618,11 @@
       <c r="C85">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43580</v>
       </c>
@@ -1374,8 +1632,11 @@
       <c r="C86">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43581</v>
       </c>
@@ -1385,8 +1646,11 @@
       <c r="C87">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43582</v>
       </c>
@@ -1396,8 +1660,11 @@
       <c r="C88">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43583</v>
       </c>
@@ -1407,8 +1674,11 @@
       <c r="C89">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43584</v>
       </c>
@@ -1418,8 +1688,11 @@
       <c r="C90">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43585</v>
       </c>
@@ -1429,8 +1702,11 @@
       <c r="C91">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43586</v>
       </c>
@@ -1440,8 +1716,11 @@
       <c r="C92">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43587</v>
       </c>
@@ -1451,8 +1730,11 @@
       <c r="C93">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43588</v>
       </c>
@@ -1462,8 +1744,11 @@
       <c r="C94">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43589</v>
       </c>
@@ -1473,8 +1758,11 @@
       <c r="C95">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43590</v>
       </c>
@@ -1484,8 +1772,11 @@
       <c r="C96">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43591</v>
       </c>
@@ -1495,8 +1786,11 @@
       <c r="C97">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43592</v>
       </c>
@@ -1506,8 +1800,11 @@
       <c r="C98">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43593</v>
       </c>
@@ -1517,8 +1814,11 @@
       <c r="C99">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43594</v>
       </c>
@@ -1528,8 +1828,11 @@
       <c r="C100">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43595</v>
       </c>
@@ -1539,8 +1842,11 @@
       <c r="C101">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43596</v>
       </c>
@@ -1550,8 +1856,11 @@
       <c r="C102">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43597</v>
       </c>
@@ -1561,8 +1870,11 @@
       <c r="C103">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43598</v>
       </c>
@@ -1572,8 +1884,11 @@
       <c r="C104">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43599</v>
       </c>
@@ -1583,8 +1898,11 @@
       <c r="C105">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43600</v>
       </c>
@@ -1594,8 +1912,11 @@
       <c r="C106">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43601</v>
       </c>
@@ -1605,8 +1926,11 @@
       <c r="C107">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43602</v>
       </c>
@@ -1616,8 +1940,11 @@
       <c r="C108">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43603</v>
       </c>
@@ -1627,8 +1954,11 @@
       <c r="C109">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43604</v>
       </c>
@@ -1638,8 +1968,11 @@
       <c r="C110">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43605</v>
       </c>
@@ -1649,8 +1982,11 @@
       <c r="C111">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43606</v>
       </c>
@@ -1660,8 +1996,11 @@
       <c r="C112">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43607</v>
       </c>
@@ -1671,8 +2010,11 @@
       <c r="C113">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43608</v>
       </c>
@@ -1682,8 +2024,11 @@
       <c r="C114">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43609</v>
       </c>
@@ -1693,8 +2038,11 @@
       <c r="C115">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43610</v>
       </c>
@@ -1704,8 +2052,11 @@
       <c r="C116">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43611</v>
       </c>
@@ -1715,8 +2066,11 @@
       <c r="C117">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43612</v>
       </c>
@@ -1726,8 +2080,11 @@
       <c r="C118">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43613</v>
       </c>
@@ -1737,8 +2094,11 @@
       <c r="C119">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43614</v>
       </c>
@@ -1748,8 +2108,11 @@
       <c r="C120">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43615</v>
       </c>
@@ -1759,8 +2122,11 @@
       <c r="C121">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43616</v>
       </c>
@@ -1770,8 +2136,11 @@
       <c r="C122">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43617</v>
       </c>
@@ -1781,8 +2150,11 @@
       <c r="C123">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43618</v>
       </c>
@@ -1792,8 +2164,11 @@
       <c r="C124">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43619</v>
       </c>
@@ -1803,8 +2178,11 @@
       <c r="C125">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43620</v>
       </c>
@@ -1814,8 +2192,11 @@
       <c r="C126">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43621</v>
       </c>
@@ -1825,8 +2206,11 @@
       <c r="C127">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43622</v>
       </c>
@@ -1836,8 +2220,11 @@
       <c r="C128">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43623</v>
       </c>
@@ -1847,8 +2234,11 @@
       <c r="C129">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43624</v>
       </c>
@@ -1858,8 +2248,11 @@
       <c r="C130">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43625</v>
       </c>
@@ -1869,8 +2262,11 @@
       <c r="C131">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43626</v>
       </c>
@@ -1880,8 +2276,11 @@
       <c r="C132">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43627</v>
       </c>
@@ -1891,8 +2290,11 @@
       <c r="C133">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43628</v>
       </c>
@@ -1902,8 +2304,11 @@
       <c r="C134">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43629</v>
       </c>
@@ -1913,8 +2318,11 @@
       <c r="C135">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43630</v>
       </c>
@@ -1924,8 +2332,11 @@
       <c r="C136">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43631</v>
       </c>
@@ -1935,8 +2346,11 @@
       <c r="C137">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43632</v>
       </c>
@@ -1946,8 +2360,11 @@
       <c r="C138">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43633</v>
       </c>
@@ -1957,8 +2374,11 @@
       <c r="C139">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43634</v>
       </c>
@@ -1968,8 +2388,11 @@
       <c r="C140">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43635</v>
       </c>
@@ -1979,8 +2402,11 @@
       <c r="C141">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43636</v>
       </c>
@@ -1990,8 +2416,11 @@
       <c r="C142">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43637</v>
       </c>
@@ -2001,8 +2430,11 @@
       <c r="C143">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43638</v>
       </c>
@@ -2012,8 +2444,11 @@
       <c r="C144">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43639</v>
       </c>
@@ -2023,8 +2458,11 @@
       <c r="C145">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43640</v>
       </c>
@@ -2034,8 +2472,11 @@
       <c r="C146">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43641</v>
       </c>
@@ -2045,8 +2486,11 @@
       <c r="C147">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43642</v>
       </c>
@@ -2056,8 +2500,11 @@
       <c r="C148">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43643</v>
       </c>
@@ -2067,8 +2514,11 @@
       <c r="C149">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43644</v>
       </c>
@@ -2078,8 +2528,11 @@
       <c r="C150">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43645</v>
       </c>
@@ -2089,8 +2542,11 @@
       <c r="C151">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43646</v>
       </c>
@@ -2100,8 +2556,11 @@
       <c r="C152">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43647</v>
       </c>
@@ -2111,8 +2570,11 @@
       <c r="C153">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43648</v>
       </c>
@@ -2122,8 +2584,11 @@
       <c r="C154">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43649</v>
       </c>
@@ -2133,8 +2598,11 @@
       <c r="C155">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43650</v>
       </c>
@@ -2144,8 +2612,11 @@
       <c r="C156">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43651</v>
       </c>
@@ -2155,8 +2626,11 @@
       <c r="C157">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43652</v>
       </c>
@@ -2166,8 +2640,11 @@
       <c r="C158">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43653</v>
       </c>
@@ -2177,8 +2654,11 @@
       <c r="C159">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43654</v>
       </c>
@@ -2188,8 +2668,11 @@
       <c r="C160">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43655</v>
       </c>
@@ -2199,8 +2682,11 @@
       <c r="C161">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43656</v>
       </c>
@@ -2210,8 +2696,11 @@
       <c r="C162">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43657</v>
       </c>
@@ -2221,8 +2710,11 @@
       <c r="C163">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43658</v>
       </c>
@@ -2232,8 +2724,11 @@
       <c r="C164">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43659</v>
       </c>
@@ -2243,8 +2738,11 @@
       <c r="C165">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43660</v>
       </c>
@@ -2254,8 +2752,11 @@
       <c r="C166">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43661</v>
       </c>
@@ -2265,8 +2766,11 @@
       <c r="C167">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43662</v>
       </c>
@@ -2276,8 +2780,11 @@
       <c r="C168">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43663</v>
       </c>
@@ -2287,8 +2794,11 @@
       <c r="C169">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43664</v>
       </c>
@@ -2298,8 +2808,11 @@
       <c r="C170">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43665</v>
       </c>
@@ -2309,8 +2822,11 @@
       <c r="C171">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43666</v>
       </c>
@@ -2320,8 +2836,11 @@
       <c r="C172">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43667</v>
       </c>
@@ -2331,8 +2850,11 @@
       <c r="C173">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43668</v>
       </c>
@@ -2342,8 +2864,11 @@
       <c r="C174">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43669</v>
       </c>
@@ -2353,8 +2878,11 @@
       <c r="C175">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43670</v>
       </c>
@@ -2364,8 +2892,11 @@
       <c r="C176">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43671</v>
       </c>
@@ -2375,8 +2906,11 @@
       <c r="C177">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43672</v>
       </c>
@@ -2386,8 +2920,11 @@
       <c r="C178">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43673</v>
       </c>
@@ -2397,8 +2934,11 @@
       <c r="C179">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43674</v>
       </c>
@@ -2408,8 +2948,11 @@
       <c r="C180">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43675</v>
       </c>
@@ -2419,8 +2962,11 @@
       <c r="C181">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43676</v>
       </c>
@@ -2429,6 +2975,9 @@
       </c>
       <c r="C182">
         <v>1.5483870967741935</v>
+      </c>
+      <c r="D182">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>
@@ -2438,10 +2987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E011D23-23CF-47C9-A331-7DA7763D03D5}">
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2998,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2459,8 +3008,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43496</v>
       </c>
@@ -2470,8 +3022,11 @@
       <c r="C2">
         <v>5.096774193548387</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43497</v>
       </c>
@@ -2481,8 +3036,11 @@
       <c r="C3">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43498</v>
       </c>
@@ -2492,8 +3050,11 @@
       <c r="C4">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43499</v>
       </c>
@@ -2503,8 +3064,11 @@
       <c r="C5">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43500</v>
       </c>
@@ -2514,8 +3078,11 @@
       <c r="C6">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43501</v>
       </c>
@@ -2525,8 +3092,11 @@
       <c r="C7">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43502</v>
       </c>
@@ -2536,8 +3106,11 @@
       <c r="C8">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43503</v>
       </c>
@@ -2547,8 +3120,11 @@
       <c r="C9">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43504</v>
       </c>
@@ -2558,8 +3134,11 @@
       <c r="C10">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43505</v>
       </c>
@@ -2569,8 +3148,11 @@
       <c r="C11">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43506</v>
       </c>
@@ -2580,8 +3162,11 @@
       <c r="C12">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43507</v>
       </c>
@@ -2591,8 +3176,11 @@
       <c r="C13">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43508</v>
       </c>
@@ -2602,8 +3190,11 @@
       <c r="C14">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43509</v>
       </c>
@@ -2613,8 +3204,11 @@
       <c r="C15">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43510</v>
       </c>
@@ -2624,8 +3218,11 @@
       <c r="C16">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43511</v>
       </c>
@@ -2635,8 +3232,11 @@
       <c r="C17">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43512</v>
       </c>
@@ -2646,8 +3246,11 @@
       <c r="C18">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43513</v>
       </c>
@@ -2657,8 +3260,11 @@
       <c r="C19">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43514</v>
       </c>
@@ -2668,8 +3274,11 @@
       <c r="C20">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43515</v>
       </c>
@@ -2679,8 +3288,11 @@
       <c r="C21">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43516</v>
       </c>
@@ -2690,8 +3302,11 @@
       <c r="C22">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43517</v>
       </c>
@@ -2701,8 +3316,11 @@
       <c r="C23">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43518</v>
       </c>
@@ -2712,8 +3330,11 @@
       <c r="C24">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43519</v>
       </c>
@@ -2723,8 +3344,11 @@
       <c r="C25">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43520</v>
       </c>
@@ -2734,8 +3358,11 @@
       <c r="C26">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43521</v>
       </c>
@@ -2745,8 +3372,11 @@
       <c r="C27">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43522</v>
       </c>
@@ -2756,8 +3386,11 @@
       <c r="C28">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43523</v>
       </c>
@@ -2767,8 +3400,11 @@
       <c r="C29">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43524</v>
       </c>
@@ -2778,8 +3414,11 @@
       <c r="C30">
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43525</v>
       </c>
@@ -2789,8 +3428,11 @@
       <c r="C31">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43526</v>
       </c>
@@ -2800,8 +3442,11 @@
       <c r="C32">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43527</v>
       </c>
@@ -2811,8 +3456,11 @@
       <c r="C33">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43528</v>
       </c>
@@ -2822,8 +3470,11 @@
       <c r="C34">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43529</v>
       </c>
@@ -2833,8 +3484,11 @@
       <c r="C35">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43530</v>
       </c>
@@ -2844,8 +3498,11 @@
       <c r="C36">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43531</v>
       </c>
@@ -2855,8 +3512,11 @@
       <c r="C37">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43532</v>
       </c>
@@ -2866,8 +3526,11 @@
       <c r="C38">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43533</v>
       </c>
@@ -2877,8 +3540,11 @@
       <c r="C39">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43534</v>
       </c>
@@ -2888,8 +3554,11 @@
       <c r="C40">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43535</v>
       </c>
@@ -2899,8 +3568,11 @@
       <c r="C41">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43536</v>
       </c>
@@ -2910,8 +3582,11 @@
       <c r="C42">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43537</v>
       </c>
@@ -2921,8 +3596,11 @@
       <c r="C43">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43538</v>
       </c>
@@ -2932,8 +3610,11 @@
       <c r="C44">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43539</v>
       </c>
@@ -2943,8 +3624,11 @@
       <c r="C45">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43540</v>
       </c>
@@ -2954,8 +3638,11 @@
       <c r="C46">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43541</v>
       </c>
@@ -2965,8 +3652,11 @@
       <c r="C47">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43542</v>
       </c>
@@ -2976,8 +3666,11 @@
       <c r="C48">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43543</v>
       </c>
@@ -2987,8 +3680,11 @@
       <c r="C49">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43544</v>
       </c>
@@ -2998,8 +3694,11 @@
       <c r="C50">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43545</v>
       </c>
@@ -3009,8 +3708,11 @@
       <c r="C51">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43546</v>
       </c>
@@ -3020,8 +3722,11 @@
       <c r="C52">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43547</v>
       </c>
@@ -3031,8 +3736,11 @@
       <c r="C53">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43548</v>
       </c>
@@ -3042,8 +3750,11 @@
       <c r="C54">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43549</v>
       </c>
@@ -3053,8 +3764,11 @@
       <c r="C55">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43550</v>
       </c>
@@ -3064,8 +3778,11 @@
       <c r="C56">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43551</v>
       </c>
@@ -3075,8 +3792,11 @@
       <c r="C57">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43552</v>
       </c>
@@ -3086,8 +3806,11 @@
       <c r="C58">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43553</v>
       </c>
@@ -3097,8 +3820,11 @@
       <c r="C59">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43554</v>
       </c>
@@ -3108,8 +3834,11 @@
       <c r="C60">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43555</v>
       </c>
@@ -3119,8 +3848,11 @@
       <c r="C61">
         <v>3.5806451612903225</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43556</v>
       </c>
@@ -3130,8 +3862,11 @@
       <c r="C62">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43557</v>
       </c>
@@ -3141,8 +3876,11 @@
       <c r="C63">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43558</v>
       </c>
@@ -3152,8 +3890,11 @@
       <c r="C64">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43559</v>
       </c>
@@ -3163,8 +3904,11 @@
       <c r="C65">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43560</v>
       </c>
@@ -3174,8 +3918,11 @@
       <c r="C66">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43561</v>
       </c>
@@ -3185,8 +3932,11 @@
       <c r="C67">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43562</v>
       </c>
@@ -3196,8 +3946,11 @@
       <c r="C68">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43563</v>
       </c>
@@ -3207,8 +3960,11 @@
       <c r="C69">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43564</v>
       </c>
@@ -3218,8 +3974,11 @@
       <c r="C70">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43565</v>
       </c>
@@ -3229,8 +3988,11 @@
       <c r="C71">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43566</v>
       </c>
@@ -3240,8 +4002,11 @@
       <c r="C72">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43567</v>
       </c>
@@ -3251,8 +4016,11 @@
       <c r="C73">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43568</v>
       </c>
@@ -3262,8 +4030,11 @@
       <c r="C74">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43569</v>
       </c>
@@ -3273,8 +4044,11 @@
       <c r="C75">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43570</v>
       </c>
@@ -3284,8 +4058,11 @@
       <c r="C76">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43571</v>
       </c>
@@ -3295,8 +4072,11 @@
       <c r="C77">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43572</v>
       </c>
@@ -3306,8 +4086,11 @@
       <c r="C78">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43573</v>
       </c>
@@ -3317,8 +4100,11 @@
       <c r="C79">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43574</v>
       </c>
@@ -3328,8 +4114,11 @@
       <c r="C80">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43575</v>
       </c>
@@ -3339,8 +4128,11 @@
       <c r="C81">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43576</v>
       </c>
@@ -3350,8 +4142,11 @@
       <c r="C82">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43577</v>
       </c>
@@ -3361,8 +4156,11 @@
       <c r="C83">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43578</v>
       </c>
@@ -3372,8 +4170,11 @@
       <c r="C84">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43579</v>
       </c>
@@ -3383,8 +4184,11 @@
       <c r="C85">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43580</v>
       </c>
@@ -3394,8 +4198,11 @@
       <c r="C86">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43581</v>
       </c>
@@ -3405,8 +4212,11 @@
       <c r="C87">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43582</v>
       </c>
@@ -3416,8 +4226,11 @@
       <c r="C88">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43583</v>
       </c>
@@ -3427,8 +4240,11 @@
       <c r="C89">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43584</v>
       </c>
@@ -3438,8 +4254,11 @@
       <c r="C90">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43585</v>
       </c>
@@ -3449,8 +4268,11 @@
       <c r="C91">
         <v>2.5666666666666669</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43586</v>
       </c>
@@ -3460,8 +4282,11 @@
       <c r="C92">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43587</v>
       </c>
@@ -3471,8 +4296,11 @@
       <c r="C93">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43588</v>
       </c>
@@ -3482,8 +4310,11 @@
       <c r="C94">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43589</v>
       </c>
@@ -3493,8 +4324,11 @@
       <c r="C95">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43590</v>
       </c>
@@ -3504,8 +4338,11 @@
       <c r="C96">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43591</v>
       </c>
@@ -3515,8 +4352,11 @@
       <c r="C97">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43592</v>
       </c>
@@ -3526,8 +4366,11 @@
       <c r="C98">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43593</v>
       </c>
@@ -3537,8 +4380,11 @@
       <c r="C99">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43594</v>
       </c>
@@ -3548,8 +4394,11 @@
       <c r="C100">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43595</v>
       </c>
@@ -3559,8 +4408,11 @@
       <c r="C101">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43596</v>
       </c>
@@ -3570,8 +4422,11 @@
       <c r="C102">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43597</v>
       </c>
@@ -3581,8 +4436,11 @@
       <c r="C103">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43598</v>
       </c>
@@ -3592,8 +4450,11 @@
       <c r="C104">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43599</v>
       </c>
@@ -3603,8 +4464,11 @@
       <c r="C105">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43600</v>
       </c>
@@ -3614,8 +4478,11 @@
       <c r="C106">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43601</v>
       </c>
@@ -3625,8 +4492,11 @@
       <c r="C107">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43602</v>
       </c>
@@ -3636,8 +4506,11 @@
       <c r="C108">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43603</v>
       </c>
@@ -3647,8 +4520,11 @@
       <c r="C109">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43604</v>
       </c>
@@ -3658,8 +4534,11 @@
       <c r="C110">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43605</v>
       </c>
@@ -3669,8 +4548,11 @@
       <c r="C111">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43606</v>
       </c>
@@ -3680,8 +4562,11 @@
       <c r="C112">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43607</v>
       </c>
@@ -3691,8 +4576,11 @@
       <c r="C113">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43608</v>
       </c>
@@ -3702,8 +4590,11 @@
       <c r="C114">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43609</v>
       </c>
@@ -3713,8 +4604,11 @@
       <c r="C115">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43610</v>
       </c>
@@ -3724,8 +4618,11 @@
       <c r="C116">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43611</v>
       </c>
@@ -3735,8 +4632,11 @@
       <c r="C117">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43612</v>
       </c>
@@ -3746,8 +4646,11 @@
       <c r="C118">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43613</v>
       </c>
@@ -3757,8 +4660,11 @@
       <c r="C119">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43614</v>
       </c>
@@ -3768,8 +4674,11 @@
       <c r="C120">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43615</v>
       </c>
@@ -3779,8 +4688,11 @@
       <c r="C121">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43616</v>
       </c>
@@ -3790,8 +4702,11 @@
       <c r="C122">
         <v>1.8709677419354838</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43617</v>
       </c>
@@ -3801,8 +4716,11 @@
       <c r="C123">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43618</v>
       </c>
@@ -3812,8 +4730,11 @@
       <c r="C124">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43619</v>
       </c>
@@ -3823,8 +4744,11 @@
       <c r="C125">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43620</v>
       </c>
@@ -3834,8 +4758,11 @@
       <c r="C126">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43621</v>
       </c>
@@ -3845,8 +4772,11 @@
       <c r="C127">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43622</v>
       </c>
@@ -3856,8 +4786,11 @@
       <c r="C128">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43623</v>
       </c>
@@ -3867,8 +4800,11 @@
       <c r="C129">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43624</v>
       </c>
@@ -3878,8 +4814,11 @@
       <c r="C130">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43625</v>
       </c>
@@ -3889,8 +4828,11 @@
       <c r="C131">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43626</v>
       </c>
@@ -3900,8 +4842,11 @@
       <c r="C132">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43627</v>
       </c>
@@ -3911,8 +4856,11 @@
       <c r="C133">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43628</v>
       </c>
@@ -3922,8 +4870,11 @@
       <c r="C134">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43629</v>
       </c>
@@ -3933,8 +4884,11 @@
       <c r="C135">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43630</v>
       </c>
@@ -3944,8 +4898,11 @@
       <c r="C136">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43631</v>
       </c>
@@ -3955,8 +4912,11 @@
       <c r="C137">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43632</v>
       </c>
@@ -3966,8 +4926,11 @@
       <c r="C138">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43633</v>
       </c>
@@ -3977,8 +4940,11 @@
       <c r="C139">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43634</v>
       </c>
@@ -3988,8 +4954,11 @@
       <c r="C140">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43635</v>
       </c>
@@ -3999,8 +4968,11 @@
       <c r="C141">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43636</v>
       </c>
@@ -4010,8 +4982,11 @@
       <c r="C142">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43637</v>
       </c>
@@ -4021,8 +4996,11 @@
       <c r="C143">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43638</v>
       </c>
@@ -4032,8 +5010,11 @@
       <c r="C144">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43639</v>
       </c>
@@ -4043,8 +5024,11 @@
       <c r="C145">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43640</v>
       </c>
@@ -4054,8 +5038,11 @@
       <c r="C146">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43641</v>
       </c>
@@ -4065,8 +5052,11 @@
       <c r="C147">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43642</v>
       </c>
@@ -4076,8 +5066,11 @@
       <c r="C148">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43643</v>
       </c>
@@ -4087,8 +5080,11 @@
       <c r="C149">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43644</v>
       </c>
@@ -4098,8 +5094,11 @@
       <c r="C150">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43645</v>
       </c>
@@ -4109,8 +5108,11 @@
       <c r="C151">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43646</v>
       </c>
@@ -4120,8 +5122,11 @@
       <c r="C152">
         <v>1.7333333333333334</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43647</v>
       </c>
@@ -4131,8 +5136,11 @@
       <c r="C153">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43648</v>
       </c>
@@ -4142,8 +5150,11 @@
       <c r="C154">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43649</v>
       </c>
@@ -4153,8 +5164,11 @@
       <c r="C155">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43650</v>
       </c>
@@ -4164,8 +5178,11 @@
       <c r="C156">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43651</v>
       </c>
@@ -4175,8 +5192,11 @@
       <c r="C157">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43652</v>
       </c>
@@ -4186,8 +5206,11 @@
       <c r="C158">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43653</v>
       </c>
@@ -4197,8 +5220,11 @@
       <c r="C159">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43654</v>
       </c>
@@ -4208,8 +5234,11 @@
       <c r="C160">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43655</v>
       </c>
@@ -4219,8 +5248,11 @@
       <c r="C161">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43656</v>
       </c>
@@ -4230,8 +5262,11 @@
       <c r="C162">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43657</v>
       </c>
@@ -4241,8 +5276,11 @@
       <c r="C163">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43658</v>
       </c>
@@ -4252,8 +5290,11 @@
       <c r="C164">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43659</v>
       </c>
@@ -4263,8 +5304,11 @@
       <c r="C165">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43660</v>
       </c>
@@ -4274,8 +5318,11 @@
       <c r="C166">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43661</v>
       </c>
@@ -4285,8 +5332,11 @@
       <c r="C167">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43662</v>
       </c>
@@ -4296,8 +5346,11 @@
       <c r="C168">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43663</v>
       </c>
@@ -4307,8 +5360,11 @@
       <c r="C169">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43664</v>
       </c>
@@ -4318,8 +5374,11 @@
       <c r="C170">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43665</v>
       </c>
@@ -4329,8 +5388,11 @@
       <c r="C171">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43666</v>
       </c>
@@ -4340,8 +5402,11 @@
       <c r="C172">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43667</v>
       </c>
@@ -4351,8 +5416,11 @@
       <c r="C173">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43668</v>
       </c>
@@ -4362,8 +5430,11 @@
       <c r="C174">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43669</v>
       </c>
@@ -4373,8 +5444,11 @@
       <c r="C175">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43670</v>
       </c>
@@ -4384,8 +5458,11 @@
       <c r="C176">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43671</v>
       </c>
@@ -4395,8 +5472,11 @@
       <c r="C177">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43672</v>
       </c>
@@ -4406,8 +5486,11 @@
       <c r="C178">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43673</v>
       </c>
@@ -4417,8 +5500,11 @@
       <c r="C179">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43674</v>
       </c>
@@ -4428,8 +5514,11 @@
       <c r="C180">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43675</v>
       </c>
@@ -4439,8 +5528,11 @@
       <c r="C181">
         <v>1.5483870967741935</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43676</v>
       </c>
@@ -4449,6 +5541,9 @@
       </c>
       <c r="C182">
         <v>1.5483870967741935</v>
+      </c>
+      <c r="D182">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
